--- a/data/trans_camb/P24_8_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_8_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-11,17</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,77</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-4,14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-8,19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-5,36</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-5,66</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 4,12</t>
+          <t>-10,88; 6,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -0,04</t>
+          <t>-18,97; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -0,69</t>
+          <t>-18,97; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 5,86</t>
+          <t>-18,97; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 3,54</t>
+          <t>-22,55; 7,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 10,81</t>
+          <t>-25,41; 2,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 2,84</t>
+          <t>-20,36; 9,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -1,56</t>
+          <t>-21,8; 7,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 1,6</t>
+          <t>-14,9; 4,96</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-17,31; -0,23</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 2,99</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-14,93; 3,12</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-47,52%</t>
+          <t>-8,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-80,71%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-84,78%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-28,82%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,31%</t>
+          <t>-36,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>-61,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-36,04%</t>
+          <t>-26,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-57,89%</t>
+          <t>-31,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-40,03%</t>
+          <t>-34,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-68,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-44,9%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-47,41%</t>
         </is>
       </c>
     </row>
@@ -806,32 +875,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-70,99; 64,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,86; 41,57</t>
+          <t>-84,49; 80,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,58; 106,68</t>
+          <t>-90,88; 61,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,91; 33,42</t>
+          <t>-74,25; 118,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,97; -6,18</t>
+          <t>-82,35; 88,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-69,16; 20,41</t>
+          <t>-81,64; 94,07</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-92,76; 31,94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-83,64; 66,49</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-82,78; 68,87</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,07</t>
+          <t>-12,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-11,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>-14,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-13,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-10,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-9,61</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-9,39</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-11,16</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-12,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 4,89</t>
+          <t>-45,38; 4,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 4,23</t>
+          <t>-45,83; 4,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 3,56</t>
+          <t>-47,49; 2,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 10,05</t>
+          <t>-46,83; 3,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 7,42</t>
+          <t>-21,74; 8,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 5,74</t>
+          <t>-22,53; 8,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 4,02</t>
+          <t>-21,5; 7,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 2,32</t>
+          <t>-25,46; 3,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 0,92</t>
+          <t>-28,76; 2,05</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-28,76; 1,83</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-29,11; -0,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-32,08; -1,82</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-50,2%</t>
+          <t>-63,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-54,58%</t>
+          <t>-60,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-58,9%</t>
+          <t>-73,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>-70,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,46%</t>
+          <t>-29,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,54%</t>
+          <t>-28,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-28,79%</t>
+          <t>-30,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-37,9%</t>
+          <t>-45,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-44,83%</t>
+          <t>-45,41%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-44,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-52,71%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-59,57%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-98,43; 136,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 120,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 101,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,47; 100,37</t>
+          <t>-100,0; 75,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,79; 68,17</t>
+          <t>-74,45; 63,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,25; 56,42</t>
+          <t>-72,95; 61,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,69; 46,24</t>
+          <t>-69,47; 69,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,11; 27,13</t>
+          <t>-81,82; 33,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-78,79; 12,16</t>
+          <t>-83,2; 19,8</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-80,87; 17,28</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-82,3; 12,39</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-88,46; -3,36</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 3,24</t>
+          <t>-9,39; 12,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-21,72; -1,98</t>
+          <t>-15,0; 1,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 4,09</t>
+          <t>-10,38; 10,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 3,9</t>
+          <t>-11,47; 8,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 6,69</t>
+          <t>-12,14; 6,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 5,84</t>
+          <t>-11,29; 6,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 1,87</t>
+          <t>-11,73; 7,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 0,93</t>
+          <t>-12,68; 6,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 3,31</t>
+          <t>-7,49; 6,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 3,39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,64; 5,26</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,52; 4,46</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,74%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-77,45%</t>
+          <t>-75,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,27%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-21,02%</t>
+          <t>-20,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-17,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>-16,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-28,74%</t>
+          <t>-16,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-36,58%</t>
+          <t>-22,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-19,94%</t>
+          <t>-7,51%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-31,18%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-11,41%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-23,68%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-84,29; 75,9</t>
+          <t>-82,46; 451,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -15,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-84,35; 76,23</t>
+          <t>-83,0; 394,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,02; 44,0</t>
+          <t>-100,0; 407,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,63; 78,49</t>
+          <t>-62,83; 72,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,35; 63,8</t>
+          <t>-60,24; 73,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-62,74; 21,81</t>
+          <t>-62,0; 75,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-65,43; 10,21</t>
+          <t>-65,67; 72,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,26; 40,41</t>
+          <t>-49,77; 86,77</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-66,54; 44,98</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-56,74; 69,68</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-61,88; 63,32</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 2,4</t>
+          <t>-6,05; 3,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 4,84</t>
+          <t>-2,79; 8,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 5,13</t>
+          <t>-2,29; 10,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 6,09</t>
+          <t>-3,76; 5,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 10,38</t>
+          <t>-6,04; 13,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 7,23</t>
+          <t>-6,2; 12,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,72</t>
+          <t>-5,67; 13,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 6,1</t>
+          <t>-3,52; 16,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 4,65</t>
+          <t>-3,72; 8,04</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 10,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 10,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 9,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-46,29%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,21%</t>
+          <t>117,43%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,06%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>24,57%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>42,71%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>44,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36,82%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-89,43; 89,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 147,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 140,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 81,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,89; 138,68</t>
+          <t>-39,13; 196,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 96,88</t>
+          <t>-38,36; 168,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-54,26; 42,82</t>
+          <t>-38,88; 186,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 90,27</t>
+          <t>-24,64; 237,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-44,38; 72,11</t>
+          <t>-37,01; 180,82</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-22,37; 243,09</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-25,21; 217,97</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-30,52; 188,67</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-2,71</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 2,1</t>
+          <t>-7,31; 4,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 5,34</t>
+          <t>-5,27; 6,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 14,48</t>
+          <t>-0,26; 26,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 4,35</t>
+          <t>-1,5; 15,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 7,57</t>
+          <t>-16,58; 2,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 7,82</t>
+          <t>-12,46; 11,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 0,81</t>
+          <t>-10,0; 13,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 4,22</t>
+          <t>-10,51; 12,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 7,6</t>
+          <t>-8,52; 1,88</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 6,01</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 16,8</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 11,25</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-46,42%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-9,24%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>265,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-42,34%</t>
+          <t>219,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-12,25%</t>
+          <t>-63,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-43,91%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-11,92%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>-47,24%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>87,47%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>70,26%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 256,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,52; 384,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,12; 1020,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-78,76; 82,6</t>
+          <t>-64,86; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,73; 124,88</t>
+          <t>-100,0; 190,91</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,74; 115,76</t>
+          <t>-80,88; 318,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-77,69; 18,47</t>
+          <t>-70,8; 363,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 91,97</t>
+          <t>-79,81; 353,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 145,89</t>
+          <t>-89,22; 112,52</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-71,29; 227,77</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-39,83; 566,51</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-39,19; 356,31</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>9,97</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>13,85</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,01</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
           <t>2,21</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>12,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 2,75</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,9</t>
+          <t>0,0; 12,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 12,89</t>
+          <t>2,36; 24,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 14,46</t>
+          <t>-2,17; 17,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 11,97</t>
+          <t>-4,59; 9,21</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,82</t>
+          <t>0,96; 23,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 8,99</t>
+          <t>3,33; 30,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 5,39</t>
+          <t>0,19; 11,71</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 6,96</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 13,35</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 22,24</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-50,26%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>284,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>73,55%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>442,25%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>614,44%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,01%</t>
+          <t>409,9%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>180,69%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>446,12%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>990,26%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +2255,47 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 604,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 595,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-46,53; 557,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 280,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-50,02; 355,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 252,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
           <t>-2,45</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -0,28</t>
+          <t>-10,31; 2,38</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,63; -0,48</t>
+          <t>-11,2; 1,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,21; -0,06</t>
+          <t>-9,74; 3,08</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,13</t>
+          <t>-9,29; 2,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,78</t>
+          <t>-6,44; 3,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 3,33</t>
+          <t>-6,68; 2,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,08</t>
+          <t>-4,9; 4,96</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 0,24</t>
+          <t>-4,88; 5,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,59</t>
+          <t>-5,67; 1,55</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 0,56</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 2,68</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 2,98</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-44,41%</t>
+          <t>-25,76%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-49,12%</t>
+          <t>-43,43%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-41,28%</t>
+          <t>-19,77%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-12,11%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-14,49%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-24,2%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-23,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-19,09%</t>
+          <t>-16,14%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-23,85%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-7,83%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-6,17%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-70,7; -0,81</t>
+          <t>-78,3; 75,14</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-73,61; -6,56</t>
+          <t>-85,03; 39,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-69,94; 3,33</t>
+          <t>-74,2; 95,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 22,66</t>
+          <t>-77,13; 84,96</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 28,0</t>
+          <t>-39,11; 31,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 31,98</t>
+          <t>-41,71; 28,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 1,46</t>
+          <t>-30,48; 45,05</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 3,04</t>
+          <t>-30,49; 46,63</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 6,01</t>
+          <t>-43,93; 19,8</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-47,45; 8,35</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-39,11; 32,32</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-35,95; 36,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
